--- a/02-intermediate/156-hands-on-02.xlsx
+++ b/02-intermediate/156-hands-on-02.xlsx
@@ -10,6 +10,9 @@
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13013" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13013" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13013" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13013" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="sales" sheetId="67" r:id="rId1"/>
@@ -19,6 +22,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'sales (2)'!$A:$A,'sales (2)'!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="162913" concurrentCalc="0"/>
+  <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
 
@@ -226,7 +230,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -406,8 +410,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -522,6 +532,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -567,7 +592,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -587,6 +612,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -957,6 +985,9 @@
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="68" zoomScalePageLayoutView="59" workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -4114,8 +4145,11 @@
   <dimension ref="A1:S53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="68" zoomScalePageLayoutView="58" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
+    <sheetView tabSelected="1" workbookViewId="1"/>
+    <sheetView tabSelected="1" workbookViewId="2"/>
+    <sheetView tabSelected="1" workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -4246,7 +4280,7 @@
         <v>21443.333333333299</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="6">
         <v>41285</v>
       </c>
@@ -4305,11 +4339,11 @@
         <v>25732</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="6">
         <v>41292</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="9">
         <v>40000</v>
       </c>
       <c r="C4" s="1">
